--- a/biology/Zoologie/Heterometrus_spinifer/Heterometrus_spinifer.xlsx
+++ b/biology/Zoologie/Heterometrus_spinifer/Heterometrus_spinifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometrus spinifer est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et en Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Malaisie péninsulaire et en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, ce scorpion vit dans la pénombre des sous-bois et y creuse des galeries dans le sol où il peut se cacher durant la journée. 
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterometrus spinifer mesure de 100 à 135 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterometrus spinifer mesure de 100 à 135 mm.
 Il est de couleur noir orné de reflets vert-de-grisés. Il possède une paire de pinces très développées.
 Ce scorpion se nourrit de blattes, de grillons et de criquets.
 </t>
@@ -606,9 +624,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin peut provoquer une douleur très forte, des troubles oculaires, ainsi que de légers engourdissements autour de la zone touchée mais pas la mort chez l'homme[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin peut provoquer une douleur très forte, des troubles oculaires, ainsi que de légers engourdissements autour de la zone touchée mais pas la mort chez l'homme.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus spinifer par Ehrenberg en 1828. Elle est placée dans le genre Heterometrus par Karsch en 1879[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus spinifer par Ehrenberg en 1828. Elle est placée dans le genre Heterometrus par Karsch en 1879.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hemprich &amp; Ehrenberg, 1828 : Zoologica II. Arachnoidea. Symbolae physicae seu icones et descriptiones animalium evertebratorum sepositis insectis quae ex itinere per Africam borealem et Asiam occidentalem. Berolini, Officina Academica, (texte intégral).</t>
         </is>
